--- a/Output/March/productivity_agent/productivity_agent_2022-03-19.xlsx
+++ b/Output/March/productivity_agent/productivity_agent_2022-03-19.xlsx
@@ -19882,7 +19882,7 @@
         <v>1</v>
       </c>
       <c r="N58">
-        <v>938</v>
+        <v>950</v>
       </c>
       <c r="O58">
         <v>0</v>
@@ -19996,7 +19996,7 @@
         <v>0.3870967741935484</v>
       </c>
       <c r="AZ58">
-        <v>562.8</v>
+        <v>570</v>
       </c>
       <c r="BA58">
         <v>0</v>
@@ -20110,7 +20110,7 @@
         <v>8.34620039227142e-05</v>
       </c>
       <c r="CL58">
-        <v>0.6621176470588235</v>
+        <v>0.6705882352941176</v>
       </c>
       <c r="CM58">
         <v>0</v>
@@ -20155,7 +20155,7 @@
         <v>0</v>
       </c>
       <c r="DA58">
-        <v>0.27516962906652</v>
+        <v>0.2780606148123542</v>
       </c>
     </row>
     <row r="59" spans="1:105">
@@ -42389,7 +42389,7 @@
         <v>0</v>
       </c>
       <c r="N129">
-        <v>3307</v>
+        <v>3337</v>
       </c>
       <c r="O129">
         <v>0</v>
@@ -42503,7 +42503,7 @@
         <v>0</v>
       </c>
       <c r="AZ129">
-        <v>751.590909090909</v>
+        <v>758.4090909090909</v>
       </c>
       <c r="BA129">
         <v>0</v>
@@ -42617,7 +42617,7 @@
         <v>0</v>
       </c>
       <c r="CL129">
-        <v>0.8842245989304812</v>
+        <v>0.8922459893048128</v>
       </c>
       <c r="CM129">
         <v>0</v>
@@ -42662,7 +42662,7 @@
         <v>0</v>
       </c>
       <c r="DA129">
-        <v>0.8430820215410108</v>
+        <v>0.8505385252692627</v>
       </c>
     </row>
     <row r="130" spans="1:105">
@@ -47461,7 +47461,7 @@
         <v>2984</v>
       </c>
       <c r="N145">
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="O145">
         <v>2950</v>
@@ -47575,7 +47575,7 @@
         <v>0</v>
       </c>
       <c r="AZ145">
-        <v>272.7272727272727</v>
+        <v>763.6363636363637</v>
       </c>
       <c r="BA145">
         <v>1195.945945945946</v>
@@ -47689,7 +47689,7 @@
         <v>0</v>
       </c>
       <c r="CL145">
-        <v>0.320855614973262</v>
+        <v>0.8983957219251338</v>
       </c>
       <c r="CM145">
         <v>1.494932432432432</v>
@@ -47734,7 +47734,7 @@
         <v>0</v>
       </c>
       <c r="DA145">
-        <v>0.7844883958546197</v>
+        <v>0.816016639906583</v>
       </c>
     </row>
     <row r="146" spans="1:105">
@@ -48095,7 +48095,7 @@
         <v>545</v>
       </c>
       <c r="N147">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="O147">
         <v>545</v>
@@ -48209,7 +48209,7 @@
         <v>0</v>
       </c>
       <c r="AZ147">
-        <v>117.1428571428571</v>
+        <v>136.1904761904762</v>
       </c>
       <c r="BA147">
         <v>244.0298507462687</v>
@@ -48323,7 +48323,7 @@
         <v>0</v>
       </c>
       <c r="CL147">
-        <v>0.1378151260504202</v>
+        <v>0.1602240896358543</v>
       </c>
       <c r="CM147">
         <v>0.3050373134328359</v>
@@ -48368,7 +48368,7 @@
         <v>0.2983606557377049</v>
       </c>
       <c r="DA147">
-        <v>0.3419795577805591</v>
+        <v>0.3453170629954109</v>
       </c>
     </row>
     <row r="148" spans="1:105">
